--- a/capiq_data/in_process_data/IQ29096.xlsx
+++ b/capiq_data/in_process_data/IQ29096.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372FDC7-4193-4B08-AB7B-AA8B84431430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4359A0-FEF2-442B-A238-7D8F8A0CEB67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9aa2edbb-a1ac-44f7-8dd0-b0c32ec65b24"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a0615491-6606-4677-9919-96bd7ac1fdce"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$73</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$73</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$73</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$73</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$73</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$73</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$73</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$73</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$73</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$73</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$73</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$73</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$73</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$73</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$73</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$73</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$73</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$73</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$73</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$73</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$73</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$73</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$73</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$73</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$73</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$73</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,99 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,203 +826,203 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>2543</v>
+        <v>25.8</v>
       </c>
       <c r="D2">
-        <v>8440</v>
+        <v>248.61799999999999</v>
       </c>
       <c r="E2">
-        <v>4252</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5494</v>
+        <v>159.971</v>
       </c>
       <c r="G2">
-        <v>41562</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>57851</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5826</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-2.2389999999999999</v>
       </c>
       <c r="N2">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11610</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5826</v>
+        <v>10.862</v>
       </c>
       <c r="Q2">
-        <v>2373</v>
+        <v>56.898000000000003</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37711</v>
       </c>
       <c r="S2">
-        <v>24400</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>46241</v>
+        <v>187.82400000000001</v>
       </c>
       <c r="U2">
-        <v>12019</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>3526</v>
+        <v>113.19799999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1752</v>
+        <v>3.351</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>279</v>
+        <v>-29.934000000000001</v>
       </c>
       <c r="AA2">
-        <v>2543</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1798</v>
+        <v>32.167999999999999</v>
       </c>
       <c r="D3">
-        <v>8575</v>
+        <v>311.19900000000001</v>
       </c>
       <c r="E3">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5639</v>
+        <v>192.43700000000001</v>
       </c>
       <c r="G3">
-        <v>43310</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>59960</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5096</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2435</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9332</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11109</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5096</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1215</v>
+        <v>31.427</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37802</v>
       </c>
       <c r="S3">
-        <v>26316</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>48851</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3172</v>
+        <v>63.975999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-111</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-3077</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="AA3">
-        <v>1798</v>
+        <v>32.167999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37894</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>2506</v>
+        <v>20.425999999999998</v>
       </c>
       <c r="D4">
-        <v>9026</v>
+        <v>393.94200000000001</v>
       </c>
       <c r="E4">
-        <v>4476</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5854</v>
+        <v>220.54400000000001</v>
       </c>
       <c r="G4">
-        <v>46442</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>64861</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2985</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3153</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1031,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7798</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12870</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>6138</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-2095</v>
+        <v>89.338999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37894</v>
       </c>
       <c r="S4">
-        <v>28768</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>51991</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>9404</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3519</v>
+        <v>131.72800000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>958</v>
+        <v>0.315</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-4594</v>
+        <v>16.974</v>
       </c>
       <c r="AA4">
-        <v>2505</v>
+        <v>20.425999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37986</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2729</v>
+        <v>27.254000000000001</v>
       </c>
       <c r="D5">
-        <v>9720</v>
+        <v>512.17499999999995</v>
       </c>
       <c r="E5">
-        <v>4583</v>
+        <v>154.69</v>
       </c>
       <c r="F5">
-        <v>6342</v>
+        <v>258.57100000000003</v>
       </c>
       <c r="G5">
-        <v>50042</v>
+        <v>560.23400000000004</v>
       </c>
       <c r="H5">
-        <v>69088</v>
+        <v>871.45799999999997</v>
       </c>
       <c r="I5">
-        <v>563</v>
+        <v>46.174999999999997</v>
       </c>
       <c r="J5">
-        <v>2986</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4273</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,247 +1114,247 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>8888</v>
+        <v>235.452</v>
       </c>
       <c r="O5">
-        <v>14258</v>
+        <v>268.81700000000001</v>
       </c>
       <c r="P5">
-        <v>7259</v>
+        <v>6.609</v>
       </c>
       <c r="Q5">
-        <v>310</v>
+        <v>-86.421000000000006</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37986</v>
       </c>
       <c r="S5">
-        <v>31353</v>
+        <v>1628</v>
       </c>
       <c r="T5">
-        <v>54830</v>
+        <v>602.64099999999996</v>
       </c>
       <c r="U5">
-        <v>8730</v>
+        <v>148.995</v>
       </c>
       <c r="V5">
-        <v>3950</v>
+        <v>86.543000000000006</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-80</v>
+        <v>3.8759999999999999</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.988</v>
       </c>
       <c r="Z5">
-        <v>-3273</v>
+        <v>-122.11499999999999</v>
       </c>
       <c r="AA5">
-        <v>2729</v>
+        <v>27.254000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38077</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>2704</v>
+        <v>63.972999999999999</v>
       </c>
       <c r="D6">
-        <v>10583</v>
+        <v>651.62300000000005</v>
       </c>
       <c r="E6">
-        <v>5427</v>
+        <v>179.505</v>
       </c>
       <c r="F6">
-        <v>6880</v>
+        <v>331.149</v>
       </c>
       <c r="G6">
-        <v>52758</v>
+        <v>703.38599999999997</v>
       </c>
       <c r="H6">
-        <v>72574</v>
+        <v>1079.454</v>
       </c>
       <c r="I6">
-        <v>588</v>
+        <v>37.780999999999999</v>
       </c>
       <c r="J6">
-        <v>2986</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3225</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.204</v>
       </c>
       <c r="N6">
-        <v>8913</v>
+        <v>299.63099999999997</v>
       </c>
       <c r="O6">
-        <v>14429</v>
+        <v>337.803</v>
       </c>
       <c r="P6">
-        <v>6211</v>
+        <v>5.4050000000000002</v>
       </c>
       <c r="Q6">
-        <v>-647</v>
+        <v>102.35899999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38077</v>
       </c>
       <c r="S6">
-        <v>32467</v>
+        <v>1907</v>
       </c>
       <c r="T6">
-        <v>58145</v>
+        <v>741.65099999999995</v>
       </c>
       <c r="U6">
-        <v>8723</v>
+        <v>251.35400000000001</v>
       </c>
       <c r="V6">
-        <v>3924</v>
+        <v>208.04499999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>40</v>
+        <v>3.71</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="Z6">
-        <v>-2410</v>
+        <v>-17.806000000000001</v>
       </c>
       <c r="AA6">
-        <v>2704</v>
+        <v>63.972999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38168</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>2890</v>
+        <v>79.063000000000002</v>
       </c>
       <c r="D7">
-        <v>10645</v>
+        <v>700.21199999999999</v>
       </c>
       <c r="E7">
-        <v>5163</v>
+        <v>191.18700000000001</v>
       </c>
       <c r="F7">
-        <v>6856</v>
+        <v>371.28899999999999</v>
       </c>
       <c r="G7">
-        <v>56859</v>
+        <v>881.88900000000001</v>
       </c>
       <c r="H7">
-        <v>77144</v>
+        <v>1328.0219999999999</v>
       </c>
       <c r="I7">
-        <v>760</v>
+        <v>61.83</v>
       </c>
       <c r="J7">
-        <v>2987</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>4720</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>9742</v>
+        <v>252.25700000000001</v>
       </c>
       <c r="O7">
-        <v>15432</v>
+        <v>311.02300000000002</v>
       </c>
       <c r="P7">
-        <v>7707</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="Q7">
-        <v>13125</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38168</v>
       </c>
       <c r="S7">
-        <v>33077</v>
+        <v>2292</v>
       </c>
       <c r="T7">
-        <v>61712</v>
+        <v>1016.999</v>
       </c>
       <c r="U7">
-        <v>21408</v>
+        <v>254.69800000000001</v>
       </c>
       <c r="V7">
-        <v>3694</v>
+        <v>162.559</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>1230</v>
+        <v>28.617000000000001</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="Z7">
-        <v>8410</v>
+        <v>-91.367000000000004</v>
       </c>
       <c r="AA7">
-        <v>2890</v>
+        <v>79.063000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38260</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>2785</v>
+        <v>51.982999999999997</v>
       </c>
       <c r="D8">
-        <v>11807</v>
+        <v>805.88699999999994</v>
       </c>
       <c r="E8">
-        <v>6866</v>
+        <v>233.05699999999999</v>
       </c>
       <c r="F8">
-        <v>7138</v>
+        <v>441.79199999999997</v>
       </c>
       <c r="G8">
-        <v>53857</v>
+        <v>2360.2109999999998</v>
       </c>
       <c r="H8">
-        <v>86051</v>
+        <v>2888.518</v>
       </c>
       <c r="I8">
-        <v>2419</v>
+        <v>49.557000000000002</v>
       </c>
       <c r="J8">
-        <v>2987</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5134</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1363,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14028</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="O8">
-        <v>21330</v>
+        <v>299.495</v>
       </c>
       <c r="P8">
-        <v>8121</v>
+        <v>3.089</v>
       </c>
       <c r="Q8">
-        <v>-7671</v>
+        <v>89.771000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38260</v>
       </c>
       <c r="S8">
-        <v>54604</v>
+        <v>2668</v>
       </c>
       <c r="T8">
-        <v>64721</v>
+        <v>2589.0230000000001</v>
       </c>
       <c r="U8">
-        <v>14037</v>
+        <v>344.46899999999999</v>
       </c>
       <c r="V8">
-        <v>4252</v>
+        <v>238.34299999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>639</v>
+        <v>1162.001</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Z8">
-        <v>-1497</v>
+        <v>-1219.8019999999999</v>
       </c>
       <c r="AA8">
-        <v>2785</v>
+        <v>51.982999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38352</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>2176</v>
+        <v>204.1</v>
       </c>
       <c r="D9">
-        <v>13304</v>
+        <v>1031.501</v>
       </c>
       <c r="E9">
-        <v>7259</v>
+        <v>311.83600000000001</v>
       </c>
       <c r="F9">
-        <v>7401</v>
+        <v>576.02599999999995</v>
       </c>
       <c r="G9">
-        <v>56821</v>
+        <v>2693.4650000000001</v>
       </c>
       <c r="H9">
-        <v>89730</v>
+        <v>3313.3510000000001</v>
       </c>
       <c r="I9">
-        <v>2233</v>
+        <v>32.671999999999997</v>
       </c>
       <c r="J9">
-        <v>2996</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>4904</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,247 +1446,247 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14434</v>
+        <v>340.36799999999999</v>
       </c>
       <c r="O9">
-        <v>21702</v>
+        <v>384.29500000000002</v>
       </c>
       <c r="P9">
-        <v>7900</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="Q9">
-        <v>823</v>
+        <v>82.403999999999996</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38352</v>
       </c>
       <c r="S9">
-        <v>53546</v>
+        <v>3021</v>
       </c>
       <c r="T9">
-        <v>68028</v>
+        <v>2929.056</v>
       </c>
       <c r="U9">
-        <v>15160</v>
+        <v>426.87299999999999</v>
       </c>
       <c r="V9">
-        <v>4004</v>
+        <v>368.09699999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-1605</v>
+        <v>-194.523</v>
       </c>
       <c r="AA9">
-        <v>2176</v>
+        <v>204.1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38442</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>2886</v>
+        <v>369.19299999999998</v>
       </c>
       <c r="D10">
-        <v>14419</v>
+        <v>1256.5160000000001</v>
       </c>
       <c r="E10">
-        <v>7885</v>
+        <v>371.90499999999997</v>
       </c>
       <c r="F10">
-        <v>8275</v>
+        <v>709.73500000000001</v>
       </c>
       <c r="G10">
-        <v>60454</v>
+        <v>3158.4740000000002</v>
       </c>
       <c r="H10">
-        <v>93798</v>
+        <v>3865.1990000000001</v>
       </c>
       <c r="I10">
-        <v>2012</v>
+        <v>75.444000000000003</v>
       </c>
       <c r="J10">
-        <v>2988</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4222</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.59199999999999997</v>
       </c>
       <c r="N10">
-        <v>14337</v>
+        <v>393.32799999999997</v>
       </c>
       <c r="O10">
-        <v>22083</v>
+        <v>438.33699999999999</v>
       </c>
       <c r="P10">
-        <v>7210</v>
+        <v>1.31</v>
       </c>
       <c r="Q10">
-        <v>-1482</v>
+        <v>55.698999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38442</v>
       </c>
       <c r="S10">
-        <v>53861</v>
+        <v>3482</v>
       </c>
       <c r="T10">
-        <v>71715</v>
+        <v>3426.8620000000001</v>
       </c>
       <c r="U10">
-        <v>13849</v>
+        <v>482.572</v>
       </c>
       <c r="V10">
-        <v>4669</v>
+        <v>529.62199999999996</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-692</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-4234</v>
+        <v>-324.93700000000001</v>
       </c>
       <c r="AA10">
-        <v>2886</v>
+        <v>369.19299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38533</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>3346</v>
+        <v>342.81400000000002</v>
       </c>
       <c r="D11">
-        <v>12951</v>
+        <v>1384.4949999999999</v>
       </c>
       <c r="E11">
-        <v>7612</v>
+        <v>419.238</v>
       </c>
       <c r="F11">
-        <v>7815</v>
+        <v>786.37599999999998</v>
       </c>
       <c r="G11">
-        <v>62808</v>
+        <v>3649.21</v>
       </c>
       <c r="H11">
-        <v>96692</v>
+        <v>4497.7179999999998</v>
       </c>
       <c r="I11">
-        <v>2094</v>
+        <v>105.572</v>
       </c>
       <c r="J11">
-        <v>2989</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4387</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-3323</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13252</v>
+        <v>448.37</v>
       </c>
       <c r="O11">
-        <v>21219</v>
+        <v>543.86099999999999</v>
       </c>
       <c r="P11">
-        <v>7376</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="Q11">
-        <v>597</v>
+        <v>270.89999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38533</v>
       </c>
       <c r="S11">
-        <v>53891</v>
+        <v>4183</v>
       </c>
       <c r="T11">
-        <v>75473</v>
+        <v>3953.857</v>
       </c>
       <c r="U11">
-        <v>13838</v>
+        <v>753.47199999999998</v>
       </c>
       <c r="V11">
-        <v>3633</v>
+        <v>624.61900000000003</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-517</v>
+        <v>7.9560000000000004</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-1551</v>
+        <v>-176.834</v>
       </c>
       <c r="AA11">
-        <v>3346</v>
+        <v>342.81400000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38625</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>381.18200000000002</v>
       </c>
       <c r="D12">
-        <v>13107</v>
+        <v>1578.4559999999999</v>
       </c>
       <c r="E12">
-        <v>7321</v>
+        <v>541.81500000000005</v>
       </c>
       <c r="F12">
-        <v>7912</v>
+        <v>923.30200000000002</v>
       </c>
       <c r="G12">
-        <v>66861</v>
+        <v>8382.6849999999995</v>
       </c>
       <c r="H12">
-        <v>101182</v>
+        <v>9451.0010000000002</v>
       </c>
       <c r="I12">
-        <v>1758</v>
+        <v>87.346000000000004</v>
       </c>
       <c r="J12">
-        <v>1989</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6211</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1695,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15329</v>
+        <v>559.84799999999996</v>
       </c>
       <c r="O12">
-        <v>22330</v>
+        <v>657.93299999999999</v>
       </c>
       <c r="P12">
-        <v>8200</v>
+        <v>0.01</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4765.0969999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38625</v>
       </c>
       <c r="S12">
-        <v>44777</v>
+        <v>4989</v>
       </c>
       <c r="T12">
-        <v>78852</v>
+        <v>8793.0679999999993</v>
       </c>
       <c r="U12">
-        <v>14112</v>
+        <v>5518.5690000000004</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>646.74699999999996</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4308.2929999999997</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>125.988</v>
       </c>
       <c r="AA12">
-        <v>3228</v>
+        <v>381.18200000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38717</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>2970</v>
+        <v>372.20800000000003</v>
       </c>
       <c r="D13">
-        <v>13754</v>
+        <v>1919.0920000000001</v>
       </c>
       <c r="E13">
-        <v>7921</v>
+        <v>687.976</v>
       </c>
       <c r="F13">
-        <v>8345</v>
+        <v>1142.057</v>
       </c>
       <c r="G13">
-        <v>68858</v>
+        <v>9001.0709999999999</v>
       </c>
       <c r="H13">
-        <v>105068</v>
+        <v>10271.813</v>
       </c>
       <c r="I13">
-        <v>2124</v>
+        <v>115.575</v>
       </c>
       <c r="J13">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3893</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1778,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14475</v>
+        <v>745.38400000000001</v>
       </c>
       <c r="O13">
-        <v>22079</v>
+        <v>852.85599999999999</v>
       </c>
       <c r="P13">
-        <v>7140</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-922</v>
+        <v>-1641.395</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38717</v>
       </c>
       <c r="S13">
-        <v>46421</v>
+        <v>5680</v>
       </c>
       <c r="T13">
-        <v>82989</v>
+        <v>9418.9570000000003</v>
       </c>
       <c r="U13">
-        <v>13458</v>
+        <v>3877.174</v>
       </c>
       <c r="V13">
-        <v>5083</v>
+        <v>658.43399999999997</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-267</v>
+        <v>51.076000000000001</v>
       </c>
       <c r="Y13">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3028</v>
+        <v>-2042.883</v>
       </c>
       <c r="AA13">
-        <v>2970</v>
+        <v>372.20800000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38807</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>592.29100000000005</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2253.7550000000001</v>
       </c>
       <c r="E14">
-        <v>8882</v>
+        <v>844.37800000000004</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1349.636</v>
       </c>
       <c r="G14">
-        <v>72886</v>
+        <v>9555.9570000000003</v>
       </c>
       <c r="H14">
-        <v>110920</v>
+        <v>11294.87</v>
       </c>
       <c r="I14">
-        <v>2453</v>
+        <v>145.911</v>
       </c>
       <c r="J14">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3374</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1861,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15908</v>
+        <v>980.024</v>
       </c>
       <c r="O14">
-        <v>23611</v>
+        <v>1051.6020000000001</v>
       </c>
       <c r="P14">
-        <v>6619</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-941.995</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38807</v>
       </c>
       <c r="S14">
-        <v>47756</v>
+        <v>6790</v>
       </c>
       <c r="T14">
-        <v>87309</v>
+        <v>10243.268</v>
       </c>
       <c r="U14">
-        <v>17628</v>
+        <v>2935.1790000000001</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>824.80399999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>119.896</v>
       </c>
       <c r="Y14">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1355.7149999999999</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>592.29100000000005</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38898</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>3452</v>
+        <v>721.077</v>
       </c>
       <c r="D15">
-        <v>15420</v>
+        <v>2455.991</v>
       </c>
       <c r="E15">
-        <v>7827</v>
+        <v>885.08799999999997</v>
       </c>
       <c r="F15">
-        <v>9459</v>
+        <v>1466.9590000000001</v>
       </c>
       <c r="G15">
-        <v>75314</v>
+        <v>11058.107</v>
       </c>
       <c r="H15">
-        <v>116526</v>
+        <v>14396.005999999999</v>
       </c>
       <c r="I15">
-        <v>1623</v>
+        <v>179.441</v>
       </c>
       <c r="J15">
-        <v>2991</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4153</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-2423</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>16270</v>
+        <v>977.43</v>
       </c>
       <c r="O15">
-        <v>24815</v>
+        <v>1038.998</v>
       </c>
       <c r="P15">
-        <v>8396</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-2259</v>
+        <v>1080.7429999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38898</v>
       </c>
       <c r="S15">
-        <v>49829</v>
+        <v>7942</v>
       </c>
       <c r="T15">
-        <v>91711</v>
+        <v>13357.008</v>
       </c>
       <c r="U15">
-        <v>14536</v>
+        <v>4015.922</v>
       </c>
       <c r="V15">
-        <v>4391</v>
+        <v>840.58600000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>822</v>
+        <v>2299.056</v>
       </c>
       <c r="Y15">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-2844</v>
+        <v>-1368.096</v>
       </c>
       <c r="AA15">
-        <v>3371</v>
+        <v>721.077</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38990</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>3270</v>
+        <v>733.36099999999999</v>
       </c>
       <c r="D16">
-        <v>15955</v>
+        <v>2689.6729999999998</v>
       </c>
       <c r="E16">
-        <v>8321</v>
+        <v>1031.0550000000001</v>
       </c>
       <c r="F16">
-        <v>9841</v>
+        <v>1640.9449999999999</v>
       </c>
       <c r="G16">
-        <v>77905</v>
+        <v>11858.243</v>
       </c>
       <c r="H16">
-        <v>121608</v>
+        <v>15693.232</v>
       </c>
       <c r="I16">
-        <v>1345</v>
+        <v>207.34800000000001</v>
       </c>
       <c r="J16">
-        <v>2991</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5086</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2027,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17097</v>
+        <v>1216.047</v>
       </c>
       <c r="O16">
-        <v>25859</v>
+        <v>1296.145</v>
       </c>
       <c r="P16">
-        <v>8327</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2981</v>
+        <v>-977.58100000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38990</v>
       </c>
       <c r="S16">
-        <v>52069</v>
+        <v>9378</v>
       </c>
       <c r="T16">
-        <v>95749</v>
+        <v>14397.087</v>
       </c>
       <c r="U16">
-        <v>16731</v>
+        <v>3038.3409999999999</v>
       </c>
       <c r="V16">
-        <v>5627</v>
+        <v>1004.324</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-1462</v>
+        <v>129.41800000000001</v>
       </c>
       <c r="Y16">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1125</v>
+        <v>-1552.828</v>
       </c>
       <c r="AA16">
-        <v>3351</v>
+        <v>733.36099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39082</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>2739</v>
+        <v>1030.7170000000001</v>
       </c>
       <c r="D17">
-        <v>16523</v>
+        <v>3205.498</v>
       </c>
       <c r="E17">
-        <v>8237</v>
+        <v>1322.34</v>
       </c>
       <c r="F17">
-        <v>10206</v>
+        <v>1922.35</v>
       </c>
       <c r="G17">
-        <v>80115</v>
+        <v>13039.847</v>
       </c>
       <c r="H17">
-        <v>125781</v>
+        <v>18473.350999999999</v>
       </c>
       <c r="I17">
-        <v>1368</v>
+        <v>211.16900000000001</v>
       </c>
       <c r="J17">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5402</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2110,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17920</v>
+        <v>1304.587</v>
       </c>
       <c r="O17">
-        <v>26966</v>
+        <v>1433.511</v>
       </c>
       <c r="P17">
-        <v>8641</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-4015</v>
+        <v>506.33</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39082</v>
       </c>
       <c r="S17">
-        <v>51564</v>
+        <v>10674</v>
       </c>
       <c r="T17">
-        <v>98815</v>
+        <v>17039.84</v>
       </c>
       <c r="U17">
-        <v>13506</v>
+        <v>3544.6709999999998</v>
       </c>
       <c r="V17">
-        <v>5994</v>
+        <v>910.79399999999998</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-455</v>
+        <v>418.02800000000002</v>
       </c>
       <c r="Y17">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-5359</v>
+        <v>-317.267</v>
       </c>
       <c r="AA17">
-        <v>2739</v>
+        <v>1030.7170000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39172</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1002.162</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3663.971</v>
       </c>
       <c r="E18">
-        <v>9383</v>
+        <v>1477.09</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2193.5450000000001</v>
       </c>
       <c r="G18">
-        <v>78656</v>
+        <v>14080.773999999999</v>
       </c>
       <c r="H18">
-        <v>129187</v>
+        <v>20015.437999999998</v>
       </c>
       <c r="I18">
-        <v>1715</v>
+        <v>181.828</v>
       </c>
       <c r="J18">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4777</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2193,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16779</v>
+        <v>1254.3530000000001</v>
       </c>
       <c r="O18">
-        <v>25327</v>
+        <v>1638.2280000000001</v>
       </c>
       <c r="P18">
-        <v>8015</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>536.66899999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39172</v>
       </c>
       <c r="S18">
-        <v>53600</v>
+        <v>12238</v>
       </c>
       <c r="T18">
-        <v>103860</v>
+        <v>18377.21</v>
       </c>
       <c r="U18">
-        <v>16585</v>
+        <v>4081.34</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1219.5930000000001</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>88.51</v>
       </c>
       <c r="Y18">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-145.79599999999999</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1002.162</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39263</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>3515</v>
+        <v>925.12</v>
       </c>
       <c r="D19">
-        <v>17258</v>
+        <v>3871.9850000000001</v>
       </c>
       <c r="E19">
-        <v>8584</v>
+        <v>1648.68</v>
       </c>
       <c r="F19">
-        <v>10902</v>
+        <v>2311.73</v>
       </c>
       <c r="G19">
-        <v>80313</v>
+        <v>14857.522999999999</v>
       </c>
       <c r="H19">
-        <v>133400</v>
+        <v>21423.884999999998</v>
       </c>
       <c r="I19">
-        <v>1688</v>
+        <v>136.483</v>
       </c>
       <c r="J19">
-        <v>2993</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3657</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3308</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14336</v>
+        <v>1319.1949999999999</v>
       </c>
       <c r="O19">
-        <v>24952</v>
+        <v>1764.277</v>
       </c>
       <c r="P19">
-        <v>6892</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-1371</v>
+        <v>412.31200000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39263</v>
       </c>
       <c r="S19">
-        <v>55419</v>
+        <v>13786</v>
       </c>
       <c r="T19">
-        <v>108448</v>
+        <v>19659.608</v>
       </c>
       <c r="U19">
-        <v>16166</v>
+        <v>4493.652</v>
       </c>
       <c r="V19">
-        <v>6722</v>
+        <v>1229.9259999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-496</v>
+        <v>120.129</v>
       </c>
       <c r="Y19">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-3243</v>
+        <v>-191.14400000000001</v>
       </c>
       <c r="AA19">
-        <v>3515</v>
+        <v>925.12</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39355</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>3931</v>
+        <v>1069.989</v>
       </c>
       <c r="D20">
-        <v>17727</v>
+        <v>4231.3509999999997</v>
       </c>
       <c r="E20">
-        <v>9394</v>
+        <v>1887.86</v>
       </c>
       <c r="F20">
-        <v>11144</v>
+        <v>2568.7719999999999</v>
       </c>
       <c r="G20">
-        <v>84164</v>
+        <v>15733.761</v>
       </c>
       <c r="H20">
-        <v>138807</v>
+        <v>23340.65</v>
       </c>
       <c r="I20">
-        <v>1315</v>
+        <v>231.88300000000001</v>
       </c>
       <c r="J20">
-        <v>1994</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>4694</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2359,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17362</v>
+        <v>1782.6669999999999</v>
       </c>
       <c r="O20">
-        <v>27024</v>
+        <v>2303.8789999999999</v>
       </c>
       <c r="P20">
-        <v>7927</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1477</v>
+        <v>612.75199999999995</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39355</v>
       </c>
       <c r="S20">
-        <v>57148</v>
+        <v>15916</v>
       </c>
       <c r="T20">
-        <v>111783</v>
+        <v>21036.771000000001</v>
       </c>
       <c r="U20">
-        <v>16398</v>
+        <v>5106.4040000000005</v>
       </c>
       <c r="V20">
-        <v>7096</v>
+        <v>1632.643</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-561</v>
+        <v>49.011000000000003</v>
       </c>
       <c r="Y20">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3746</v>
+        <v>78.506</v>
       </c>
       <c r="AA20">
-        <v>3931</v>
+        <v>1069.989</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39447</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>3979</v>
+        <v>1206.4490000000001</v>
       </c>
       <c r="D21">
-        <v>18675</v>
+        <v>4826.6790000000001</v>
       </c>
       <c r="E21">
-        <v>9749</v>
+        <v>2162.5210000000002</v>
       </c>
       <c r="F21">
-        <v>11638</v>
+        <v>2870.855</v>
       </c>
       <c r="G21">
-        <v>88103</v>
+        <v>17289.137999999999</v>
       </c>
       <c r="H21">
-        <v>144281</v>
+        <v>25335.806</v>
       </c>
       <c r="I21">
-        <v>1549</v>
+        <v>282.10599999999999</v>
       </c>
       <c r="J21">
-        <v>1994</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>5266</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2442,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18457</v>
+        <v>2035.6020000000001</v>
       </c>
       <c r="O21">
-        <v>28040</v>
+        <v>2646.127</v>
       </c>
       <c r="P21">
-        <v>8497</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-385</v>
+        <v>975.18899999999996</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39447</v>
       </c>
       <c r="S21">
-        <v>59976</v>
+        <v>16805</v>
       </c>
       <c r="T21">
-        <v>116241</v>
+        <v>22689.679</v>
       </c>
       <c r="U21">
-        <v>16213</v>
+        <v>6081.5929999999998</v>
       </c>
       <c r="V21">
-        <v>6145</v>
+        <v>1693.248</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-609</v>
+        <v>145.417</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-4139</v>
+        <v>-113.664</v>
       </c>
       <c r="AA21">
-        <v>3979</v>
+        <v>1206.4490000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39538</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>4923</v>
+        <v>1307.086</v>
       </c>
       <c r="D22">
-        <v>21329</v>
+        <v>5186.0429999999997</v>
       </c>
       <c r="E22">
-        <v>11556</v>
+        <v>2560.9090000000001</v>
       </c>
       <c r="F22">
-        <v>13141</v>
+        <v>3075.5070000000001</v>
       </c>
       <c r="G22">
-        <v>90114</v>
+        <v>15464.931</v>
       </c>
       <c r="H22">
-        <v>147461</v>
+        <v>27604.982</v>
       </c>
       <c r="I22">
-        <v>1931</v>
+        <v>358.12200000000001</v>
       </c>
       <c r="J22">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4428</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2525,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19310</v>
+        <v>2460.4749999999999</v>
       </c>
       <c r="O22">
-        <v>27130</v>
+        <v>3267.4470000000001</v>
       </c>
       <c r="P22">
-        <v>7648</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>-1519</v>
+        <v>438.15600000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39538</v>
       </c>
       <c r="S22">
-        <v>61814</v>
+        <v>19156</v>
       </c>
       <c r="T22">
-        <v>120331</v>
+        <v>24337.535</v>
       </c>
       <c r="U22">
-        <v>15409</v>
+        <v>6519.7489999999998</v>
       </c>
       <c r="V22">
-        <v>6609</v>
+        <v>1779.4459999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-2559</v>
+        <v>28.655999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-2507</v>
+        <v>2559.7159999999999</v>
       </c>
       <c r="AA22">
-        <v>4923</v>
+        <v>1307.086</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39629</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>4207</v>
+        <v>1247.3910000000001</v>
       </c>
       <c r="D23">
-        <v>20257</v>
+        <v>5367.2120000000004</v>
       </c>
       <c r="E23">
-        <v>10818</v>
+        <v>2641.9009999999998</v>
       </c>
       <c r="F23">
-        <v>12609</v>
+        <v>3219.6370000000002</v>
       </c>
       <c r="G23">
-        <v>90955</v>
+        <v>16316.837</v>
       </c>
       <c r="H23">
-        <v>149747</v>
+        <v>29179.786</v>
       </c>
       <c r="I23">
-        <v>1667</v>
+        <v>439.28100000000001</v>
       </c>
       <c r="J23">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4171</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-3962</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>17684</v>
+        <v>2345.5149999999999</v>
       </c>
       <c r="O23">
-        <v>26178</v>
+        <v>3266.7710000000002</v>
       </c>
       <c r="P23">
-        <v>7379</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-1438</v>
+        <v>843.78700000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39629</v>
       </c>
       <c r="S23">
-        <v>64115</v>
+        <v>19604</v>
       </c>
       <c r="T23">
-        <v>123569</v>
+        <v>25913.014999999999</v>
       </c>
       <c r="U23">
-        <v>13297</v>
+        <v>7363.5360000000001</v>
       </c>
       <c r="V23">
-        <v>7658</v>
+        <v>1766.154</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-2911</v>
+        <v>43.576999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-3626</v>
+        <v>-73.959000000000003</v>
       </c>
       <c r="AA23">
-        <v>4207</v>
+        <v>1247.3910000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39721</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>4877</v>
+        <v>1289.9390000000001</v>
       </c>
       <c r="D24">
-        <v>21500</v>
+        <v>5541.3909999999996</v>
       </c>
       <c r="E24">
-        <v>11686</v>
+        <v>2541.4920000000002</v>
       </c>
       <c r="F24">
-        <v>13370</v>
+        <v>3368.0010000000002</v>
       </c>
       <c r="G24">
-        <v>94238</v>
+        <v>17962.850999999999</v>
       </c>
       <c r="H24">
-        <v>154292</v>
+        <v>30806.973999999998</v>
       </c>
       <c r="I24">
-        <v>1716</v>
+        <v>240.70599999999999</v>
       </c>
       <c r="J24">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4064</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,78 +2691,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17341</v>
+        <v>2224.277</v>
       </c>
       <c r="O24">
-        <v>26413</v>
+        <v>3332.1120000000001</v>
       </c>
       <c r="P24">
-        <v>6268</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-1484</v>
+        <v>1006.933</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39721</v>
       </c>
       <c r="S24">
-        <v>66575</v>
+        <v>20123</v>
       </c>
       <c r="T24">
-        <v>127879</v>
+        <v>27474.862000000001</v>
       </c>
       <c r="U24">
-        <v>12106</v>
+        <v>8370.4689999999991</v>
       </c>
       <c r="V24">
-        <v>9120</v>
+        <v>2184.9580000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-3440</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-4756</v>
+        <v>-710.01599999999996</v>
       </c>
       <c r="AA24">
-        <v>4877</v>
+        <v>1289.9380000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39813</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>5061</v>
+        <v>382.44200000000001</v>
       </c>
       <c r="D25">
-        <v>22451</v>
+        <v>5700.9040000000005</v>
       </c>
       <c r="E25">
-        <v>11979</v>
+        <v>2642.192</v>
       </c>
       <c r="F25">
-        <v>13752</v>
+        <v>3510.8989999999999</v>
       </c>
       <c r="G25">
-        <v>98546</v>
+        <v>20178.182000000001</v>
       </c>
       <c r="H25">
-        <v>159948</v>
+        <v>31767.575000000001</v>
       </c>
       <c r="I25">
-        <v>2175</v>
+        <v>178.00399999999999</v>
       </c>
       <c r="J25">
-        <v>3938</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2774,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14323</v>
+        <v>2302.09</v>
       </c>
       <c r="O25">
-        <v>25845</v>
+        <v>3528.7130000000002</v>
       </c>
       <c r="P25">
-        <v>3938</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-4221</v>
+        <v>286.20299999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39813</v>
       </c>
       <c r="S25">
-        <v>69953</v>
+        <v>20222</v>
       </c>
       <c r="T25">
-        <v>134103</v>
+        <v>28238.862000000001</v>
       </c>
       <c r="U25">
-        <v>9406</v>
+        <v>8656.6720000000005</v>
       </c>
       <c r="V25">
-        <v>9845</v>
+        <v>2122.299</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-1089</v>
+        <v>11.048999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-8871</v>
+        <v>-1416.403</v>
       </c>
       <c r="AA25">
-        <v>5061</v>
+        <v>382.44200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39903</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>5333</v>
+        <v>1423</v>
       </c>
       <c r="D26">
-        <v>26064</v>
+        <v>5509</v>
       </c>
       <c r="E26">
-        <v>14137</v>
+        <v>2543.105</v>
       </c>
       <c r="F26">
-        <v>15403</v>
+        <v>3407</v>
       </c>
       <c r="G26">
-        <v>105408</v>
+        <v>22080.802</v>
       </c>
       <c r="H26">
-        <v>167497</v>
+        <v>33513.029000000002</v>
       </c>
       <c r="I26">
-        <v>2041</v>
+        <v>196.22</v>
       </c>
       <c r="J26">
-        <v>3935</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2857,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>16756</v>
+        <v>2183.8539999999998</v>
       </c>
       <c r="O26">
-        <v>28461</v>
+        <v>3664.9340000000002</v>
       </c>
       <c r="P26">
-        <v>3935</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>3512</v>
+        <v>1769</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39903</v>
       </c>
       <c r="S26">
-        <v>72053</v>
+        <v>20164</v>
       </c>
       <c r="T26">
-        <v>139036</v>
+        <v>29848.095000000001</v>
       </c>
       <c r="U26">
-        <v>12918</v>
+        <v>10426.290999999999</v>
       </c>
       <c r="V26">
-        <v>9413</v>
+        <v>2250</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-892</v>
+        <v>-5</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-976</v>
+        <v>-154</v>
       </c>
       <c r="AA26">
-        <v>5333</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39994</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>5426</v>
+        <v>1484</v>
       </c>
       <c r="D27">
-        <v>24750</v>
+        <v>5523</v>
       </c>
       <c r="E27">
-        <v>12913</v>
+        <v>2701.9119999999998</v>
       </c>
       <c r="F27">
-        <v>14955</v>
+        <v>3415</v>
       </c>
       <c r="G27">
-        <v>108794</v>
+        <v>23834.852999999999</v>
       </c>
       <c r="H27">
-        <v>172756</v>
+        <v>35158.76</v>
       </c>
       <c r="I27">
-        <v>2306</v>
+        <v>221.91399999999999</v>
       </c>
       <c r="J27">
-        <v>3937</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2937,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>15256</v>
+        <v>2000.962</v>
       </c>
       <c r="O27">
-        <v>27807</v>
+        <v>3563.904</v>
       </c>
       <c r="P27">
-        <v>3937</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>5214</v>
+        <v>1485</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39994</v>
       </c>
       <c r="S27">
-        <v>73992</v>
+        <v>19786</v>
       </c>
       <c r="T27">
-        <v>144949</v>
+        <v>31594.856</v>
       </c>
       <c r="U27">
-        <v>18132</v>
+        <v>11911.351000000001</v>
       </c>
       <c r="V27">
-        <v>9548</v>
+        <v>1609</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-1674</v>
+        <v>51</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1033</v>
+        <v>-75</v>
       </c>
       <c r="AA27">
-        <v>5426</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40086</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>3524</v>
+        <v>1639</v>
       </c>
       <c r="D28">
-        <v>26010</v>
+        <v>5945</v>
       </c>
       <c r="E28">
-        <v>14003</v>
+        <v>2807.3409999999999</v>
       </c>
       <c r="F28">
-        <v>15637</v>
+        <v>3719</v>
       </c>
       <c r="G28">
-        <v>112386</v>
+        <v>26353.544000000002</v>
       </c>
       <c r="H28">
-        <v>178621</v>
+        <v>37702.845000000001</v>
       </c>
       <c r="I28">
-        <v>2488</v>
+        <v>192.74299999999999</v>
       </c>
       <c r="J28">
-        <v>3939</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3023,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>18685</v>
+        <v>2321.7739999999999</v>
       </c>
       <c r="O28">
-        <v>30335</v>
+        <v>3981.0920000000001</v>
       </c>
       <c r="P28">
-        <v>3955</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-2421</v>
+        <v>176</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40086</v>
       </c>
       <c r="S28">
-        <v>75606</v>
+        <v>19665</v>
       </c>
       <c r="T28">
-        <v>148286</v>
+        <v>33721.752999999997</v>
       </c>
       <c r="U28">
-        <v>15711</v>
+        <v>12087.115</v>
       </c>
       <c r="V28">
-        <v>7403</v>
+        <v>2726</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-2740</v>
+        <v>29</v>
       </c>
       <c r="Y28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-4981</v>
+        <v>-2388</v>
       </c>
       <c r="AA28">
-        <v>3524</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40178</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>6732</v>
+        <v>1974</v>
       </c>
       <c r="D29">
-        <v>27772</v>
+        <v>6674</v>
       </c>
       <c r="E29">
-        <v>15295</v>
+        <v>3178</v>
       </c>
       <c r="F29">
-        <v>16624</v>
+        <v>4266</v>
       </c>
       <c r="G29">
-        <v>119345</v>
+        <v>29167</v>
       </c>
       <c r="H29">
-        <v>189536</v>
+        <v>40497</v>
       </c>
       <c r="I29">
-        <v>2674</v>
+        <v>216</v>
       </c>
       <c r="J29">
-        <v>3941</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3106,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>20693</v>
+        <v>2747</v>
       </c>
       <c r="O29">
-        <v>32436</v>
+        <v>4493</v>
       </c>
       <c r="P29">
-        <v>3964</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-5130</v>
+        <v>-1889</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40178</v>
       </c>
       <c r="S29">
-        <v>78101</v>
+        <v>19835</v>
       </c>
       <c r="T29">
-        <v>157100</v>
+        <v>36004</v>
       </c>
       <c r="U29">
-        <v>10581</v>
+        <v>10198</v>
       </c>
       <c r="V29">
-        <v>9872</v>
+        <v>2731</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-706</v>
+        <v>158</v>
       </c>
       <c r="Y29">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-10763</v>
+        <v>-4484</v>
       </c>
       <c r="AA29">
-        <v>6732</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40268</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-3020</v>
+        <v>1955</v>
       </c>
       <c r="D30">
-        <v>32323</v>
+        <v>6775</v>
       </c>
       <c r="E30">
-        <v>18336</v>
+        <v>3084</v>
       </c>
       <c r="F30">
-        <v>18056</v>
+        <v>4323</v>
       </c>
       <c r="G30">
-        <v>124308</v>
+        <v>31132</v>
       </c>
       <c r="H30">
-        <v>197295</v>
+        <v>42871</v>
       </c>
       <c r="I30">
-        <v>3137</v>
+        <v>329</v>
       </c>
       <c r="J30">
-        <v>3943</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,164 +3189,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>24183</v>
+        <v>2922</v>
       </c>
       <c r="O30">
-        <v>44793</v>
+        <v>4588</v>
       </c>
       <c r="P30">
-        <v>3969</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>-1006</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40268</v>
       </c>
       <c r="S30">
-        <v>80110</v>
+        <v>20621</v>
       </c>
       <c r="T30">
-        <v>152502</v>
+        <v>38283</v>
       </c>
       <c r="U30">
-        <v>10715</v>
+        <v>9192</v>
       </c>
       <c r="V30">
-        <v>10268</v>
+        <v>2584</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-3178</v>
+        <v>-123</v>
       </c>
       <c r="Y30">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-2671</v>
+        <v>-2995</v>
       </c>
       <c r="AA30">
-        <v>-3020</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40359</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>9401</v>
+        <v>1840</v>
       </c>
       <c r="D31">
-        <v>31146</v>
+        <v>6820</v>
       </c>
       <c r="E31">
-        <v>16777</v>
+        <v>3308</v>
       </c>
       <c r="F31">
-        <v>17679</v>
+        <v>4353</v>
       </c>
       <c r="G31">
-        <v>123761</v>
+        <v>35161</v>
       </c>
       <c r="H31">
-        <v>206935</v>
+        <v>48045</v>
       </c>
       <c r="I31">
-        <v>3526</v>
+        <v>397</v>
       </c>
       <c r="J31">
-        <v>3944</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1329</v>
+        <v>2870</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-3378</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>25394</v>
+        <v>5747</v>
       </c>
       <c r="O31">
-        <v>46110</v>
+        <v>7432</v>
       </c>
       <c r="P31">
-        <v>5302</v>
+        <v>2870</v>
       </c>
       <c r="Q31">
-        <v>1943</v>
+        <v>1521</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40359</v>
       </c>
       <c r="S31">
-        <v>85050</v>
+        <v>21805</v>
       </c>
       <c r="T31">
-        <v>160825</v>
+        <v>40613</v>
       </c>
       <c r="U31">
-        <v>12658</v>
+        <v>10713</v>
       </c>
       <c r="V31">
-        <v>11642</v>
+        <v>2085</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-2018</v>
+        <v>-646</v>
       </c>
       <c r="Y31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>673</v>
+        <v>-2026</v>
       </c>
       <c r="AA31">
-        <v>9401</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40451</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>3195</v>
+        <v>2167</v>
       </c>
       <c r="D32">
-        <v>32657</v>
+        <v>7286</v>
       </c>
       <c r="E32">
-        <v>17043</v>
+        <v>3616</v>
       </c>
       <c r="F32">
-        <v>18774</v>
+        <v>4734</v>
       </c>
       <c r="G32">
-        <v>124157</v>
+        <v>39447</v>
       </c>
       <c r="H32">
-        <v>211610</v>
+        <v>53342</v>
       </c>
       <c r="I32">
-        <v>3369</v>
+        <v>528</v>
       </c>
       <c r="J32">
-        <v>3947</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4983</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3355,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>29903</v>
+        <v>8530</v>
       </c>
       <c r="O32">
-        <v>49610</v>
+        <v>10052</v>
       </c>
       <c r="P32">
-        <v>3981</v>
+        <v>4983</v>
       </c>
       <c r="Q32">
-        <v>1490</v>
+        <v>544</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40451</v>
       </c>
       <c r="S32">
-        <v>89058</v>
+        <v>23331</v>
       </c>
       <c r="T32">
-        <v>162000</v>
+        <v>43290</v>
       </c>
       <c r="U32">
-        <v>14148</v>
+        <v>9257</v>
       </c>
       <c r="V32">
-        <v>10132</v>
+        <v>2886</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-4937</v>
+        <v>2067</v>
       </c>
       <c r="Y32">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>2268</v>
+        <v>-2464</v>
       </c>
       <c r="AA32">
-        <v>3195</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40543</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>9192</v>
+        <v>2543</v>
       </c>
       <c r="D33">
-        <v>33740</v>
+        <v>8440</v>
       </c>
       <c r="E33">
-        <v>17897</v>
+        <v>4252</v>
       </c>
       <c r="F33">
-        <v>19459</v>
+        <v>5494</v>
       </c>
       <c r="G33">
-        <v>129702</v>
+        <v>41562</v>
       </c>
       <c r="H33">
-        <v>221538</v>
+        <v>57851</v>
       </c>
       <c r="I33">
-        <v>3789</v>
+        <v>483</v>
       </c>
       <c r="J33">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>5826</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,247 +3438,247 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>31301</v>
+        <v>9996</v>
       </c>
       <c r="O33">
-        <v>51698</v>
+        <v>11610</v>
       </c>
       <c r="P33">
-        <v>3986</v>
+        <v>5826</v>
       </c>
       <c r="Q33">
-        <v>-705</v>
+        <v>2373</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40543</v>
       </c>
       <c r="S33">
-        <v>94372</v>
+        <v>24400</v>
       </c>
       <c r="T33">
-        <v>169840</v>
+        <v>46241</v>
       </c>
       <c r="U33">
-        <v>13443</v>
+        <v>12019</v>
       </c>
       <c r="V33">
-        <v>13210</v>
+        <v>3526</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-3478</v>
+        <v>1752</v>
       </c>
       <c r="Y33">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-5128</v>
+        <v>279</v>
       </c>
       <c r="AA33">
-        <v>9192</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40633</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>8948</v>
+        <v>1798</v>
       </c>
       <c r="D34">
-        <v>39276</v>
+        <v>8575</v>
       </c>
       <c r="E34">
-        <v>20838</v>
+        <v>4216</v>
       </c>
       <c r="F34">
-        <v>21358</v>
+        <v>5639</v>
       </c>
       <c r="G34">
-        <v>135676</v>
+        <v>43310</v>
       </c>
       <c r="H34">
-        <v>232792</v>
+        <v>59960</v>
       </c>
       <c r="I34">
-        <v>4378</v>
+        <v>516</v>
       </c>
       <c r="J34">
-        <v>3950</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5096</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-2435</v>
       </c>
       <c r="N34">
-        <v>34620</v>
+        <v>9332</v>
       </c>
       <c r="O34">
-        <v>55164</v>
+        <v>11109</v>
       </c>
       <c r="P34">
-        <v>4012</v>
+        <v>5096</v>
       </c>
       <c r="Q34">
-        <v>3258</v>
+        <v>-1215</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40633</v>
       </c>
       <c r="S34">
-        <v>98771</v>
+        <v>26316</v>
       </c>
       <c r="T34">
-        <v>177628</v>
+        <v>48851</v>
       </c>
       <c r="U34">
-        <v>16701</v>
+        <v>11115</v>
       </c>
       <c r="V34">
-        <v>12987</v>
+        <v>3172</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-2746</v>
+        <v>-111</v>
       </c>
       <c r="Y34">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>215</v>
+        <v>-3077</v>
       </c>
       <c r="AA34">
-        <v>8948</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40724</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>6657</v>
+        <v>2506</v>
       </c>
       <c r="D35">
-        <v>36339</v>
+        <v>9026</v>
       </c>
       <c r="E35">
-        <v>19149</v>
+        <v>4476</v>
       </c>
       <c r="F35">
-        <v>20327</v>
+        <v>5854</v>
       </c>
       <c r="G35">
-        <v>138207</v>
+        <v>46442</v>
       </c>
       <c r="H35">
-        <v>245349</v>
+        <v>64861</v>
       </c>
       <c r="I35">
-        <v>3710</v>
+        <v>567</v>
       </c>
       <c r="J35">
-        <v>3952</v>
+        <v>2985</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3153</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-345</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>34910</v>
+        <v>7798</v>
       </c>
       <c r="O35">
-        <v>61877</v>
+        <v>12870</v>
       </c>
       <c r="P35">
-        <v>13414</v>
+        <v>6138</v>
       </c>
       <c r="Q35">
-        <v>2447</v>
+        <v>-2095</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40724</v>
       </c>
       <c r="S35">
-        <v>103459</v>
+        <v>28768</v>
       </c>
       <c r="T35">
-        <v>183472</v>
+        <v>51991</v>
       </c>
       <c r="U35">
-        <v>19148</v>
+        <v>9404</v>
       </c>
       <c r="V35">
-        <v>12000</v>
+        <v>3519</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-4183</v>
+        <v>958</v>
       </c>
       <c r="Y35">
-        <v>8320</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-685</v>
+        <v>-4594</v>
       </c>
       <c r="AA35">
-        <v>6657</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40816</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>9947</v>
+        <v>2729</v>
       </c>
       <c r="D36">
-        <v>38944</v>
+        <v>9720</v>
       </c>
       <c r="E36">
-        <v>20965</v>
+        <v>4583</v>
       </c>
       <c r="F36">
-        <v>21648</v>
+        <v>6342</v>
       </c>
       <c r="G36">
-        <v>147437</v>
+        <v>50042</v>
       </c>
       <c r="H36">
-        <v>257101</v>
+        <v>69088</v>
       </c>
       <c r="I36">
-        <v>3925</v>
+        <v>563</v>
       </c>
       <c r="J36">
-        <v>3954</v>
+        <v>2986</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>4273</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3687,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>37000</v>
+        <v>8888</v>
       </c>
       <c r="O36">
-        <v>64909</v>
+        <v>14258</v>
       </c>
       <c r="P36">
-        <v>14226</v>
+        <v>7259</v>
       </c>
       <c r="Q36">
-        <v>-2561</v>
+        <v>310</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40816</v>
       </c>
       <c r="S36">
-        <v>107646</v>
+        <v>31353</v>
       </c>
       <c r="T36">
-        <v>192192</v>
+        <v>54830</v>
       </c>
       <c r="U36">
-        <v>16587</v>
+        <v>8730</v>
       </c>
       <c r="V36">
-        <v>12627</v>
+        <v>3950</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-4746</v>
+        <v>-80</v>
       </c>
       <c r="Y36">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-4236</v>
+        <v>-3273</v>
       </c>
       <c r="AA36">
-        <v>9947</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40908</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>7068</v>
+        <v>2704</v>
       </c>
       <c r="D37">
-        <v>40499</v>
+        <v>10583</v>
       </c>
       <c r="E37">
-        <v>20889</v>
+        <v>5427</v>
       </c>
       <c r="F37">
-        <v>22931</v>
+        <v>6880</v>
       </c>
       <c r="G37">
-        <v>148358</v>
+        <v>52758</v>
       </c>
       <c r="H37">
-        <v>263044</v>
+        <v>72574</v>
       </c>
       <c r="I37">
-        <v>4142</v>
+        <v>588</v>
       </c>
       <c r="J37">
-        <v>3956</v>
+        <v>2986</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3225</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3770,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>39224</v>
+        <v>8913</v>
       </c>
       <c r="O37">
-        <v>68075</v>
+        <v>14429</v>
       </c>
       <c r="P37">
-        <v>14873</v>
+        <v>6211</v>
       </c>
       <c r="Q37">
-        <v>-555</v>
+        <v>-647</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40908</v>
       </c>
       <c r="S37">
-        <v>114096</v>
+        <v>32467</v>
       </c>
       <c r="T37">
-        <v>194969</v>
+        <v>58145</v>
       </c>
       <c r="U37">
-        <v>16032</v>
+        <v>8723</v>
       </c>
       <c r="V37">
-        <v>15466</v>
+        <v>3924</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-6954</v>
+        <v>40</v>
       </c>
       <c r="Y37">
-        <v>9792</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-2466</v>
+        <v>-2410</v>
       </c>
       <c r="AA37">
-        <v>7068</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40999</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>10671</v>
+        <v>2890</v>
       </c>
       <c r="D38">
-        <v>46075</v>
+        <v>10645</v>
       </c>
       <c r="E38">
-        <v>25326</v>
+        <v>5163</v>
       </c>
       <c r="F38">
-        <v>25055</v>
+        <v>6856</v>
       </c>
       <c r="G38">
-        <v>152578</v>
+        <v>56859</v>
       </c>
       <c r="H38">
-        <v>275909</v>
+        <v>77144</v>
       </c>
       <c r="I38">
-        <v>5561</v>
+        <v>760</v>
       </c>
       <c r="J38">
-        <v>3958</v>
+        <v>2987</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4720</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="N38">
-        <v>45221</v>
+        <v>9742</v>
       </c>
       <c r="O38">
-        <v>74467</v>
+        <v>15432</v>
       </c>
       <c r="P38">
-        <v>16082</v>
+        <v>7707</v>
       </c>
       <c r="Q38">
-        <v>2466</v>
+        <v>13125</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40999</v>
       </c>
       <c r="S38">
-        <v>118899</v>
+        <v>33077</v>
       </c>
       <c r="T38">
-        <v>201442</v>
+        <v>61712</v>
       </c>
       <c r="U38">
-        <v>18498</v>
+        <v>21408</v>
       </c>
       <c r="V38">
-        <v>14427</v>
+        <v>3694</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-7326</v>
+        <v>1230</v>
       </c>
       <c r="Y38">
-        <v>10810</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>3370</v>
+        <v>8410</v>
       </c>
       <c r="AA38">
-        <v>10671</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41090</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>6836</v>
+        <v>2785</v>
       </c>
       <c r="D39">
-        <v>41159</v>
+        <v>11807</v>
       </c>
       <c r="E39">
-        <v>21825</v>
+        <v>6866</v>
       </c>
       <c r="F39">
-        <v>22177</v>
+        <v>7138</v>
       </c>
       <c r="G39">
-        <v>147018</v>
+        <v>53857</v>
       </c>
       <c r="H39">
-        <v>273403</v>
+        <v>86051</v>
       </c>
       <c r="I39">
-        <v>4099</v>
+        <v>2419</v>
       </c>
       <c r="J39">
-        <v>3960</v>
+        <v>2987</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>5134</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1947</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>40189</v>
+        <v>14028</v>
       </c>
       <c r="O39">
-        <v>69744</v>
+        <v>21330</v>
       </c>
       <c r="P39">
-        <v>16804</v>
+        <v>8121</v>
       </c>
       <c r="Q39">
-        <v>1146</v>
+        <v>-7671</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41090</v>
       </c>
       <c r="S39">
-        <v>123048</v>
+        <v>54604</v>
       </c>
       <c r="T39">
-        <v>203659</v>
+        <v>64721</v>
       </c>
       <c r="U39">
-        <v>19644</v>
+        <v>14037</v>
       </c>
       <c r="V39">
-        <v>11451</v>
+        <v>4252</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-8186</v>
+        <v>639</v>
       </c>
       <c r="Y39">
-        <v>11532</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>3936</v>
+        <v>-1497</v>
       </c>
       <c r="AA39">
-        <v>6836</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41182</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>6959</v>
+        <v>2176</v>
       </c>
       <c r="D40">
-        <v>38297</v>
+        <v>13304</v>
       </c>
       <c r="E40">
-        <v>21201</v>
+        <v>7259</v>
       </c>
       <c r="F40">
-        <v>19744</v>
+        <v>7401</v>
       </c>
       <c r="G40">
-        <v>149069</v>
+        <v>56821</v>
       </c>
       <c r="H40">
-        <v>278492</v>
+        <v>89730</v>
       </c>
       <c r="I40">
-        <v>4064</v>
+        <v>2233</v>
       </c>
       <c r="J40">
-        <v>2963</v>
+        <v>2996</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>4904</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4019,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>43658</v>
+        <v>14434</v>
       </c>
       <c r="O40">
-        <v>71170</v>
+        <v>21702</v>
       </c>
       <c r="P40">
-        <v>17279</v>
+        <v>7900</v>
       </c>
       <c r="Q40">
-        <v>-1902</v>
+        <v>823</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41182</v>
       </c>
       <c r="S40">
-        <v>127498</v>
+        <v>53546</v>
       </c>
       <c r="T40">
-        <v>207322</v>
+        <v>68028</v>
       </c>
       <c r="U40">
-        <v>17742</v>
+        <v>15160</v>
       </c>
       <c r="V40">
-        <v>13993</v>
+        <v>4004</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-7498</v>
+        <v>52</v>
       </c>
       <c r="Y40">
-        <v>11764</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-3011</v>
+        <v>-1605</v>
       </c>
       <c r="AA40">
-        <v>6959</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41274</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>11247</v>
+        <v>2886</v>
       </c>
       <c r="D41">
-        <v>46173</v>
+        <v>14419</v>
       </c>
       <c r="E41">
-        <v>24925</v>
+        <v>7885</v>
       </c>
       <c r="F41">
-        <v>25056</v>
+        <v>8275</v>
       </c>
       <c r="G41">
-        <v>164369</v>
+        <v>60454</v>
       </c>
       <c r="H41">
-        <v>299243</v>
+        <v>93798</v>
       </c>
       <c r="I41">
-        <v>4391</v>
+        <v>2012</v>
       </c>
       <c r="J41">
-        <v>12828</v>
+        <v>2988</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>4222</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4102,2701 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>48200</v>
+        <v>14337</v>
       </c>
       <c r="O41">
-        <v>86323</v>
+        <v>22083</v>
       </c>
       <c r="P41">
-        <v>27542</v>
+        <v>7210</v>
       </c>
       <c r="Q41">
-        <v>2387</v>
+        <v>-1482</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41274</v>
       </c>
       <c r="S41">
-        <v>132121</v>
+        <v>53861</v>
       </c>
       <c r="T41">
-        <v>212920</v>
+        <v>71715</v>
       </c>
       <c r="U41">
-        <v>20129</v>
+        <v>13849</v>
       </c>
       <c r="V41">
-        <v>17003</v>
+        <v>4669</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>546</v>
+        <v>-692</v>
       </c>
       <c r="Y41">
-        <v>12058</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-9372</v>
+        <v>-4234</v>
       </c>
       <c r="AA41">
-        <v>11247</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41364</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>3346</v>
+      </c>
+      <c r="D42">
+        <v>12951</v>
+      </c>
+      <c r="E42">
+        <v>7612</v>
+      </c>
+      <c r="F42">
+        <v>7815</v>
+      </c>
+      <c r="G42">
+        <v>62808</v>
+      </c>
+      <c r="H42">
+        <v>96692</v>
+      </c>
+      <c r="I42">
+        <v>2094</v>
+      </c>
+      <c r="J42">
+        <v>2989</v>
+      </c>
+      <c r="K42">
+        <v>4387</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-3323</v>
+      </c>
+      <c r="N42">
+        <v>13252</v>
+      </c>
+      <c r="O42">
+        <v>21219</v>
+      </c>
+      <c r="P42">
+        <v>7376</v>
+      </c>
+      <c r="Q42">
+        <v>597</v>
+      </c>
+      <c r="R42">
+        <v>41364</v>
+      </c>
+      <c r="S42">
+        <v>53891</v>
+      </c>
+      <c r="T42">
+        <v>75473</v>
+      </c>
+      <c r="U42">
+        <v>13838</v>
+      </c>
+      <c r="V42">
+        <v>3633</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-517</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1551</v>
+      </c>
+      <c r="AA42">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>13107</v>
+      </c>
+      <c r="E43">
+        <v>7321</v>
+      </c>
+      <c r="F43">
+        <v>7912</v>
+      </c>
+      <c r="G43">
+        <v>66861</v>
+      </c>
+      <c r="H43">
+        <v>101182</v>
+      </c>
+      <c r="I43">
+        <v>1758</v>
+      </c>
+      <c r="J43">
+        <v>1989</v>
+      </c>
+      <c r="K43">
+        <v>6211</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>15329</v>
+      </c>
+      <c r="O43">
+        <v>22330</v>
+      </c>
+      <c r="P43">
+        <v>8200</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>41455</v>
+      </c>
+      <c r="S43">
+        <v>44777</v>
+      </c>
+      <c r="T43">
+        <v>78852</v>
+      </c>
+      <c r="U43">
+        <v>14112</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>2970</v>
+      </c>
+      <c r="D44">
+        <v>13754</v>
+      </c>
+      <c r="E44">
+        <v>7921</v>
+      </c>
+      <c r="F44">
+        <v>8345</v>
+      </c>
+      <c r="G44">
+        <v>68858</v>
+      </c>
+      <c r="H44">
+        <v>105068</v>
+      </c>
+      <c r="I44">
+        <v>2124</v>
+      </c>
+      <c r="J44">
+        <v>1990</v>
+      </c>
+      <c r="K44">
+        <v>3893</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>14475</v>
+      </c>
+      <c r="O44">
+        <v>22079</v>
+      </c>
+      <c r="P44">
+        <v>7140</v>
+      </c>
+      <c r="Q44">
+        <v>-922</v>
+      </c>
+      <c r="R44">
+        <v>41547</v>
+      </c>
+      <c r="S44">
+        <v>46421</v>
+      </c>
+      <c r="T44">
+        <v>82989</v>
+      </c>
+      <c r="U44">
+        <v>13458</v>
+      </c>
+      <c r="V44">
+        <v>5083</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-267</v>
+      </c>
+      <c r="Y44">
+        <v>248</v>
+      </c>
+      <c r="Z44">
+        <v>-3028</v>
+      </c>
+      <c r="AA44">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>8882</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>72886</v>
+      </c>
+      <c r="H45">
+        <v>110920</v>
+      </c>
+      <c r="I45">
+        <v>2453</v>
+      </c>
+      <c r="J45">
+        <v>1990</v>
+      </c>
+      <c r="K45">
+        <v>3374</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>15908</v>
+      </c>
+      <c r="O45">
+        <v>23611</v>
+      </c>
+      <c r="P45">
+        <v>6619</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>41639</v>
+      </c>
+      <c r="S45">
+        <v>47756</v>
+      </c>
+      <c r="T45">
+        <v>87309</v>
+      </c>
+      <c r="U45">
+        <v>17628</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>246</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>3452</v>
+      </c>
+      <c r="D46">
+        <v>15420</v>
+      </c>
+      <c r="E46">
+        <v>7827</v>
+      </c>
+      <c r="F46">
+        <v>9459</v>
+      </c>
+      <c r="G46">
+        <v>75314</v>
+      </c>
+      <c r="H46">
+        <v>116526</v>
+      </c>
+      <c r="I46">
+        <v>1623</v>
+      </c>
+      <c r="J46">
+        <v>2991</v>
+      </c>
+      <c r="K46">
+        <v>4153</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-2423</v>
+      </c>
+      <c r="N46">
+        <v>16270</v>
+      </c>
+      <c r="O46">
+        <v>24815</v>
+      </c>
+      <c r="P46">
+        <v>8396</v>
+      </c>
+      <c r="Q46">
+        <v>-2259</v>
+      </c>
+      <c r="R46">
+        <v>41729</v>
+      </c>
+      <c r="S46">
+        <v>49829</v>
+      </c>
+      <c r="T46">
+        <v>91711</v>
+      </c>
+      <c r="U46">
+        <v>14536</v>
+      </c>
+      <c r="V46">
+        <v>4391</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>822</v>
+      </c>
+      <c r="Y46">
+        <v>243</v>
+      </c>
+      <c r="Z46">
+        <v>-2844</v>
+      </c>
+      <c r="AA46">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>3270</v>
+      </c>
+      <c r="D47">
+        <v>15955</v>
+      </c>
+      <c r="E47">
+        <v>8321</v>
+      </c>
+      <c r="F47">
+        <v>9841</v>
+      </c>
+      <c r="G47">
+        <v>77905</v>
+      </c>
+      <c r="H47">
+        <v>121608</v>
+      </c>
+      <c r="I47">
+        <v>1345</v>
+      </c>
+      <c r="J47">
+        <v>2991</v>
+      </c>
+      <c r="K47">
+        <v>5086</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>17097</v>
+      </c>
+      <c r="O47">
+        <v>25859</v>
+      </c>
+      <c r="P47">
+        <v>8327</v>
+      </c>
+      <c r="Q47">
+        <v>2981</v>
+      </c>
+      <c r="R47">
+        <v>41820</v>
+      </c>
+      <c r="S47">
+        <v>52069</v>
+      </c>
+      <c r="T47">
+        <v>95749</v>
+      </c>
+      <c r="U47">
+        <v>16731</v>
+      </c>
+      <c r="V47">
+        <v>5627</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-1462</v>
+      </c>
+      <c r="Y47">
+        <v>241</v>
+      </c>
+      <c r="Z47">
+        <v>1125</v>
+      </c>
+      <c r="AA47">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>2739</v>
+      </c>
+      <c r="D48">
+        <v>16523</v>
+      </c>
+      <c r="E48">
+        <v>8237</v>
+      </c>
+      <c r="F48">
+        <v>10206</v>
+      </c>
+      <c r="G48">
+        <v>80115</v>
+      </c>
+      <c r="H48">
+        <v>125781</v>
+      </c>
+      <c r="I48">
+        <v>1368</v>
+      </c>
+      <c r="J48">
+        <v>2992</v>
+      </c>
+      <c r="K48">
+        <v>5402</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>17920</v>
+      </c>
+      <c r="O48">
+        <v>26966</v>
+      </c>
+      <c r="P48">
+        <v>8641</v>
+      </c>
+      <c r="Q48">
+        <v>-4015</v>
+      </c>
+      <c r="R48">
+        <v>41912</v>
+      </c>
+      <c r="S48">
+        <v>51564</v>
+      </c>
+      <c r="T48">
+        <v>98815</v>
+      </c>
+      <c r="U48">
+        <v>13506</v>
+      </c>
+      <c r="V48">
+        <v>5994</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-455</v>
+      </c>
+      <c r="Y48">
+        <v>238</v>
+      </c>
+      <c r="Z48">
+        <v>-5359</v>
+      </c>
+      <c r="AA48">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>9383</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>78656</v>
+      </c>
+      <c r="H49">
+        <v>129187</v>
+      </c>
+      <c r="I49">
+        <v>1715</v>
+      </c>
+      <c r="J49">
+        <v>2992</v>
+      </c>
+      <c r="K49">
+        <v>4777</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>16779</v>
+      </c>
+      <c r="O49">
+        <v>25327</v>
+      </c>
+      <c r="P49">
+        <v>8015</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>42004</v>
+      </c>
+      <c r="S49">
+        <v>53600</v>
+      </c>
+      <c r="T49">
+        <v>103860</v>
+      </c>
+      <c r="U49">
+        <v>16585</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>236</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>3515</v>
+      </c>
+      <c r="D50">
+        <v>17258</v>
+      </c>
+      <c r="E50">
+        <v>8584</v>
+      </c>
+      <c r="F50">
+        <v>10902</v>
+      </c>
+      <c r="G50">
+        <v>80313</v>
+      </c>
+      <c r="H50">
+        <v>133400</v>
+      </c>
+      <c r="I50">
+        <v>1688</v>
+      </c>
+      <c r="J50">
+        <v>2993</v>
+      </c>
+      <c r="K50">
+        <v>3657</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-3308</v>
+      </c>
+      <c r="N50">
+        <v>14336</v>
+      </c>
+      <c r="O50">
+        <v>24952</v>
+      </c>
+      <c r="P50">
+        <v>6892</v>
+      </c>
+      <c r="Q50">
+        <v>-1371</v>
+      </c>
+      <c r="R50">
+        <v>42094</v>
+      </c>
+      <c r="S50">
+        <v>55419</v>
+      </c>
+      <c r="T50">
+        <v>108448</v>
+      </c>
+      <c r="U50">
+        <v>16166</v>
+      </c>
+      <c r="V50">
+        <v>6722</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-496</v>
+      </c>
+      <c r="Y50">
+        <v>233</v>
+      </c>
+      <c r="Z50">
+        <v>-3243</v>
+      </c>
+      <c r="AA50">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>3931</v>
+      </c>
+      <c r="D51">
+        <v>17727</v>
+      </c>
+      <c r="E51">
+        <v>9394</v>
+      </c>
+      <c r="F51">
+        <v>11144</v>
+      </c>
+      <c r="G51">
+        <v>84164</v>
+      </c>
+      <c r="H51">
+        <v>138807</v>
+      </c>
+      <c r="I51">
+        <v>1315</v>
+      </c>
+      <c r="J51">
+        <v>1994</v>
+      </c>
+      <c r="K51">
+        <v>4694</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>17362</v>
+      </c>
+      <c r="O51">
+        <v>27024</v>
+      </c>
+      <c r="P51">
+        <v>7927</v>
+      </c>
+      <c r="Q51">
+        <v>1477</v>
+      </c>
+      <c r="R51">
+        <v>42185</v>
+      </c>
+      <c r="S51">
+        <v>57148</v>
+      </c>
+      <c r="T51">
+        <v>111783</v>
+      </c>
+      <c r="U51">
+        <v>16398</v>
+      </c>
+      <c r="V51">
+        <v>7096</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-561</v>
+      </c>
+      <c r="Y51">
+        <v>231</v>
+      </c>
+      <c r="Z51">
+        <v>-3746</v>
+      </c>
+      <c r="AA51">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>3979</v>
+      </c>
+      <c r="D52">
+        <v>18675</v>
+      </c>
+      <c r="E52">
+        <v>9749</v>
+      </c>
+      <c r="F52">
+        <v>11638</v>
+      </c>
+      <c r="G52">
+        <v>88103</v>
+      </c>
+      <c r="H52">
+        <v>144281</v>
+      </c>
+      <c r="I52">
+        <v>1549</v>
+      </c>
+      <c r="J52">
+        <v>1994</v>
+      </c>
+      <c r="K52">
+        <v>5266</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>18457</v>
+      </c>
+      <c r="O52">
+        <v>28040</v>
+      </c>
+      <c r="P52">
+        <v>8497</v>
+      </c>
+      <c r="Q52">
+        <v>-385</v>
+      </c>
+      <c r="R52">
+        <v>42277</v>
+      </c>
+      <c r="S52">
+        <v>59976</v>
+      </c>
+      <c r="T52">
+        <v>116241</v>
+      </c>
+      <c r="U52">
+        <v>16213</v>
+      </c>
+      <c r="V52">
+        <v>6145</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-609</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-4139</v>
+      </c>
+      <c r="AA52">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>4923</v>
+      </c>
+      <c r="D53">
+        <v>21329</v>
+      </c>
+      <c r="E53">
+        <v>11556</v>
+      </c>
+      <c r="F53">
+        <v>13141</v>
+      </c>
+      <c r="G53">
+        <v>90114</v>
+      </c>
+      <c r="H53">
+        <v>147461</v>
+      </c>
+      <c r="I53">
+        <v>1931</v>
+      </c>
+      <c r="J53">
+        <v>1995</v>
+      </c>
+      <c r="K53">
+        <v>4428</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>19310</v>
+      </c>
+      <c r="O53">
+        <v>27130</v>
+      </c>
+      <c r="P53">
+        <v>7648</v>
+      </c>
+      <c r="Q53">
+        <v>-1519</v>
+      </c>
+      <c r="R53">
+        <v>42369</v>
+      </c>
+      <c r="S53">
+        <v>61814</v>
+      </c>
+      <c r="T53">
+        <v>120331</v>
+      </c>
+      <c r="U53">
+        <v>15409</v>
+      </c>
+      <c r="V53">
+        <v>6609</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-2559</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-2507</v>
+      </c>
+      <c r="AA53">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>4207</v>
+      </c>
+      <c r="D54">
+        <v>20257</v>
+      </c>
+      <c r="E54">
+        <v>10818</v>
+      </c>
+      <c r="F54">
+        <v>12609</v>
+      </c>
+      <c r="G54">
+        <v>90955</v>
+      </c>
+      <c r="H54">
+        <v>149747</v>
+      </c>
+      <c r="I54">
+        <v>1667</v>
+      </c>
+      <c r="J54">
+        <v>1987</v>
+      </c>
+      <c r="K54">
+        <v>4171</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-3962</v>
+      </c>
+      <c r="N54">
+        <v>17684</v>
+      </c>
+      <c r="O54">
+        <v>26178</v>
+      </c>
+      <c r="P54">
+        <v>7379</v>
+      </c>
+      <c r="Q54">
+        <v>-1438</v>
+      </c>
+      <c r="R54">
+        <v>42460</v>
+      </c>
+      <c r="S54">
+        <v>64115</v>
+      </c>
+      <c r="T54">
+        <v>123569</v>
+      </c>
+      <c r="U54">
+        <v>13297</v>
+      </c>
+      <c r="V54">
+        <v>7658</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-2911</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-3626</v>
+      </c>
+      <c r="AA54">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>4877</v>
+      </c>
+      <c r="D55">
+        <v>21500</v>
+      </c>
+      <c r="E55">
+        <v>11686</v>
+      </c>
+      <c r="F55">
+        <v>13370</v>
+      </c>
+      <c r="G55">
+        <v>94238</v>
+      </c>
+      <c r="H55">
+        <v>154292</v>
+      </c>
+      <c r="I55">
+        <v>1716</v>
+      </c>
+      <c r="J55">
+        <v>1984</v>
+      </c>
+      <c r="K55">
+        <v>4064</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>17341</v>
+      </c>
+      <c r="O55">
+        <v>26413</v>
+      </c>
+      <c r="P55">
+        <v>6268</v>
+      </c>
+      <c r="Q55">
+        <v>-1484</v>
+      </c>
+      <c r="R55">
+        <v>42551</v>
+      </c>
+      <c r="S55">
+        <v>66575</v>
+      </c>
+      <c r="T55">
+        <v>127879</v>
+      </c>
+      <c r="U55">
+        <v>12106</v>
+      </c>
+      <c r="V55">
+        <v>9120</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-3440</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-4756</v>
+      </c>
+      <c r="AA55">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>5061</v>
+      </c>
+      <c r="D56">
+        <v>22451</v>
+      </c>
+      <c r="E56">
+        <v>11979</v>
+      </c>
+      <c r="F56">
+        <v>13752</v>
+      </c>
+      <c r="G56">
+        <v>98546</v>
+      </c>
+      <c r="H56">
+        <v>159948</v>
+      </c>
+      <c r="I56">
+        <v>2175</v>
+      </c>
+      <c r="J56">
+        <v>3938</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>14323</v>
+      </c>
+      <c r="O56">
+        <v>25845</v>
+      </c>
+      <c r="P56">
+        <v>3938</v>
+      </c>
+      <c r="Q56">
+        <v>-4221</v>
+      </c>
+      <c r="R56">
+        <v>42643</v>
+      </c>
+      <c r="S56">
+        <v>69953</v>
+      </c>
+      <c r="T56">
+        <v>134103</v>
+      </c>
+      <c r="U56">
+        <v>9406</v>
+      </c>
+      <c r="V56">
+        <v>9845</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-1089</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-8871</v>
+      </c>
+      <c r="AA56">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>5333</v>
+      </c>
+      <c r="D57">
+        <v>26064</v>
+      </c>
+      <c r="E57">
+        <v>14137</v>
+      </c>
+      <c r="F57">
+        <v>15403</v>
+      </c>
+      <c r="G57">
+        <v>105408</v>
+      </c>
+      <c r="H57">
+        <v>167497</v>
+      </c>
+      <c r="I57">
+        <v>2041</v>
+      </c>
+      <c r="J57">
+        <v>3935</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>16756</v>
+      </c>
+      <c r="O57">
+        <v>28461</v>
+      </c>
+      <c r="P57">
+        <v>3935</v>
+      </c>
+      <c r="Q57">
+        <v>3512</v>
+      </c>
+      <c r="R57">
+        <v>42735</v>
+      </c>
+      <c r="S57">
+        <v>72053</v>
+      </c>
+      <c r="T57">
+        <v>139036</v>
+      </c>
+      <c r="U57">
+        <v>12918</v>
+      </c>
+      <c r="V57">
+        <v>9413</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-892</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-976</v>
+      </c>
+      <c r="AA57">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>5426</v>
+      </c>
+      <c r="D58">
+        <v>24750</v>
+      </c>
+      <c r="E58">
+        <v>12913</v>
+      </c>
+      <c r="F58">
+        <v>14955</v>
+      </c>
+      <c r="G58">
+        <v>108794</v>
+      </c>
+      <c r="H58">
+        <v>172756</v>
+      </c>
+      <c r="I58">
+        <v>2306</v>
+      </c>
+      <c r="J58">
+        <v>3937</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-18</v>
+      </c>
+      <c r="N58">
+        <v>15256</v>
+      </c>
+      <c r="O58">
+        <v>27807</v>
+      </c>
+      <c r="P58">
+        <v>3937</v>
+      </c>
+      <c r="Q58">
+        <v>5214</v>
+      </c>
+      <c r="R58">
+        <v>42825</v>
+      </c>
+      <c r="S58">
+        <v>73992</v>
+      </c>
+      <c r="T58">
+        <v>144949</v>
+      </c>
+      <c r="U58">
+        <v>18132</v>
+      </c>
+      <c r="V58">
+        <v>9548</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-1674</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-1033</v>
+      </c>
+      <c r="AA58">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>3524</v>
+      </c>
+      <c r="D59">
+        <v>26010</v>
+      </c>
+      <c r="E59">
+        <v>14003</v>
+      </c>
+      <c r="F59">
+        <v>15637</v>
+      </c>
+      <c r="G59">
+        <v>112386</v>
+      </c>
+      <c r="H59">
+        <v>178621</v>
+      </c>
+      <c r="I59">
+        <v>2488</v>
+      </c>
+      <c r="J59">
+        <v>3939</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>18685</v>
+      </c>
+      <c r="O59">
+        <v>30335</v>
+      </c>
+      <c r="P59">
+        <v>3955</v>
+      </c>
+      <c r="Q59">
+        <v>-2421</v>
+      </c>
+      <c r="R59">
+        <v>42916</v>
+      </c>
+      <c r="S59">
+        <v>75606</v>
+      </c>
+      <c r="T59">
+        <v>148286</v>
+      </c>
+      <c r="U59">
+        <v>15711</v>
+      </c>
+      <c r="V59">
+        <v>7403</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-2740</v>
+      </c>
+      <c r="Y59">
+        <v>16</v>
+      </c>
+      <c r="Z59">
+        <v>-4981</v>
+      </c>
+      <c r="AA59">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>6732</v>
+      </c>
+      <c r="D60">
+        <v>27772</v>
+      </c>
+      <c r="E60">
+        <v>15295</v>
+      </c>
+      <c r="F60">
+        <v>16624</v>
+      </c>
+      <c r="G60">
+        <v>119345</v>
+      </c>
+      <c r="H60">
+        <v>189536</v>
+      </c>
+      <c r="I60">
+        <v>2674</v>
+      </c>
+      <c r="J60">
+        <v>3941</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>20693</v>
+      </c>
+      <c r="O60">
+        <v>32436</v>
+      </c>
+      <c r="P60">
+        <v>3964</v>
+      </c>
+      <c r="Q60">
+        <v>-5130</v>
+      </c>
+      <c r="R60">
+        <v>43008</v>
+      </c>
+      <c r="S60">
+        <v>78101</v>
+      </c>
+      <c r="T60">
+        <v>157100</v>
+      </c>
+      <c r="U60">
+        <v>10581</v>
+      </c>
+      <c r="V60">
+        <v>9872</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-706</v>
+      </c>
+      <c r="Y60">
+        <v>23</v>
+      </c>
+      <c r="Z60">
+        <v>-10763</v>
+      </c>
+      <c r="AA60">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-3020</v>
+      </c>
+      <c r="D61">
+        <v>32323</v>
+      </c>
+      <c r="E61">
+        <v>18336</v>
+      </c>
+      <c r="F61">
+        <v>18056</v>
+      </c>
+      <c r="G61">
+        <v>124308</v>
+      </c>
+      <c r="H61">
+        <v>197295</v>
+      </c>
+      <c r="I61">
+        <v>3137</v>
+      </c>
+      <c r="J61">
+        <v>3943</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>24183</v>
+      </c>
+      <c r="O61">
+        <v>44793</v>
+      </c>
+      <c r="P61">
+        <v>3969</v>
+      </c>
+      <c r="Q61">
+        <v>134</v>
+      </c>
+      <c r="R61">
+        <v>43100</v>
+      </c>
+      <c r="S61">
+        <v>80110</v>
+      </c>
+      <c r="T61">
+        <v>152502</v>
+      </c>
+      <c r="U61">
+        <v>10715</v>
+      </c>
+      <c r="V61">
+        <v>10268</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-3178</v>
+      </c>
+      <c r="Y61">
+        <v>26</v>
+      </c>
+      <c r="Z61">
+        <v>-2671</v>
+      </c>
+      <c r="AA61">
+        <v>-3020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>9401</v>
+      </c>
+      <c r="D62">
+        <v>31146</v>
+      </c>
+      <c r="E62">
+        <v>16777</v>
+      </c>
+      <c r="F62">
+        <v>17679</v>
+      </c>
+      <c r="G62">
+        <v>123761</v>
+      </c>
+      <c r="H62">
+        <v>206935</v>
+      </c>
+      <c r="I62">
+        <v>3526</v>
+      </c>
+      <c r="J62">
+        <v>3944</v>
+      </c>
+      <c r="K62">
+        <v>1329</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-3378</v>
+      </c>
+      <c r="N62">
+        <v>25394</v>
+      </c>
+      <c r="O62">
+        <v>46110</v>
+      </c>
+      <c r="P62">
+        <v>5302</v>
+      </c>
+      <c r="Q62">
+        <v>1943</v>
+      </c>
+      <c r="R62">
+        <v>43190</v>
+      </c>
+      <c r="S62">
+        <v>85050</v>
+      </c>
+      <c r="T62">
+        <v>160825</v>
+      </c>
+      <c r="U62">
+        <v>12658</v>
+      </c>
+      <c r="V62">
+        <v>11642</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-2018</v>
+      </c>
+      <c r="Y62">
+        <v>29</v>
+      </c>
+      <c r="Z62">
+        <v>673</v>
+      </c>
+      <c r="AA62">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>3195</v>
+      </c>
+      <c r="D63">
+        <v>32657</v>
+      </c>
+      <c r="E63">
+        <v>17043</v>
+      </c>
+      <c r="F63">
+        <v>18774</v>
+      </c>
+      <c r="G63">
+        <v>124157</v>
+      </c>
+      <c r="H63">
+        <v>211610</v>
+      </c>
+      <c r="I63">
+        <v>3369</v>
+      </c>
+      <c r="J63">
+        <v>3947</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>29903</v>
+      </c>
+      <c r="O63">
+        <v>49610</v>
+      </c>
+      <c r="P63">
+        <v>3981</v>
+      </c>
+      <c r="Q63">
+        <v>1490</v>
+      </c>
+      <c r="R63">
+        <v>43281</v>
+      </c>
+      <c r="S63">
+        <v>89058</v>
+      </c>
+      <c r="T63">
+        <v>162000</v>
+      </c>
+      <c r="U63">
+        <v>14148</v>
+      </c>
+      <c r="V63">
+        <v>10132</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-4937</v>
+      </c>
+      <c r="Y63">
+        <v>34</v>
+      </c>
+      <c r="Z63">
+        <v>2268</v>
+      </c>
+      <c r="AA63">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>9192</v>
+      </c>
+      <c r="D64">
+        <v>33740</v>
+      </c>
+      <c r="E64">
+        <v>17897</v>
+      </c>
+      <c r="F64">
+        <v>19459</v>
+      </c>
+      <c r="G64">
+        <v>129702</v>
+      </c>
+      <c r="H64">
+        <v>221538</v>
+      </c>
+      <c r="I64">
+        <v>3789</v>
+      </c>
+      <c r="J64">
+        <v>3948</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>31301</v>
+      </c>
+      <c r="O64">
+        <v>51698</v>
+      </c>
+      <c r="P64">
+        <v>3986</v>
+      </c>
+      <c r="Q64">
+        <v>-705</v>
+      </c>
+      <c r="R64">
+        <v>43373</v>
+      </c>
+      <c r="S64">
+        <v>94372</v>
+      </c>
+      <c r="T64">
+        <v>169840</v>
+      </c>
+      <c r="U64">
+        <v>13443</v>
+      </c>
+      <c r="V64">
+        <v>13210</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-3478</v>
+      </c>
+      <c r="Y64">
+        <v>38</v>
+      </c>
+      <c r="Z64">
+        <v>-5128</v>
+      </c>
+      <c r="AA64">
+        <v>9192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>8948</v>
+      </c>
+      <c r="D65">
+        <v>39276</v>
+      </c>
+      <c r="E65">
+        <v>20838</v>
+      </c>
+      <c r="F65">
+        <v>21358</v>
+      </c>
+      <c r="G65">
+        <v>135676</v>
+      </c>
+      <c r="H65">
+        <v>232792</v>
+      </c>
+      <c r="I65">
+        <v>4378</v>
+      </c>
+      <c r="J65">
+        <v>3950</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>34620</v>
+      </c>
+      <c r="O65">
+        <v>55164</v>
+      </c>
+      <c r="P65">
+        <v>4012</v>
+      </c>
+      <c r="Q65">
+        <v>3258</v>
+      </c>
+      <c r="R65">
+        <v>43465</v>
+      </c>
+      <c r="S65">
+        <v>98771</v>
+      </c>
+      <c r="T65">
+        <v>177628</v>
+      </c>
+      <c r="U65">
+        <v>16701</v>
+      </c>
+      <c r="V65">
+        <v>12987</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-2746</v>
+      </c>
+      <c r="Y65">
+        <v>62</v>
+      </c>
+      <c r="Z65">
+        <v>215</v>
+      </c>
+      <c r="AA65">
+        <v>8948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>6657</v>
+      </c>
+      <c r="D66">
+        <v>36339</v>
+      </c>
+      <c r="E66">
+        <v>19149</v>
+      </c>
+      <c r="F66">
+        <v>20327</v>
+      </c>
+      <c r="G66">
+        <v>138207</v>
+      </c>
+      <c r="H66">
+        <v>245349</v>
+      </c>
+      <c r="I66">
+        <v>3710</v>
+      </c>
+      <c r="J66">
+        <v>3952</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-345</v>
+      </c>
+      <c r="N66">
+        <v>34910</v>
+      </c>
+      <c r="O66">
+        <v>61877</v>
+      </c>
+      <c r="P66">
+        <v>13414</v>
+      </c>
+      <c r="Q66">
+        <v>2447</v>
+      </c>
+      <c r="R66">
+        <v>43555</v>
+      </c>
+      <c r="S66">
+        <v>103459</v>
+      </c>
+      <c r="T66">
+        <v>183472</v>
+      </c>
+      <c r="U66">
+        <v>19148</v>
+      </c>
+      <c r="V66">
+        <v>12000</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-4183</v>
+      </c>
+      <c r="Y66">
+        <v>8320</v>
+      </c>
+      <c r="Z66">
+        <v>-685</v>
+      </c>
+      <c r="AA66">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>9947</v>
+      </c>
+      <c r="D67">
+        <v>38944</v>
+      </c>
+      <c r="E67">
+        <v>20965</v>
+      </c>
+      <c r="F67">
+        <v>21648</v>
+      </c>
+      <c r="G67">
+        <v>147437</v>
+      </c>
+      <c r="H67">
+        <v>257101</v>
+      </c>
+      <c r="I67">
+        <v>3925</v>
+      </c>
+      <c r="J67">
+        <v>3954</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>37000</v>
+      </c>
+      <c r="O67">
+        <v>64909</v>
+      </c>
+      <c r="P67">
+        <v>14226</v>
+      </c>
+      <c r="Q67">
+        <v>-2561</v>
+      </c>
+      <c r="R67">
+        <v>43646</v>
+      </c>
+      <c r="S67">
+        <v>107646</v>
+      </c>
+      <c r="T67">
+        <v>192192</v>
+      </c>
+      <c r="U67">
+        <v>16587</v>
+      </c>
+      <c r="V67">
+        <v>12627</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-4746</v>
+      </c>
+      <c r="Y67">
+        <v>9208</v>
+      </c>
+      <c r="Z67">
+        <v>-4236</v>
+      </c>
+      <c r="AA67">
+        <v>9947</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>7068</v>
+      </c>
+      <c r="D68">
+        <v>40499</v>
+      </c>
+      <c r="E68">
+        <v>20889</v>
+      </c>
+      <c r="F68">
+        <v>22931</v>
+      </c>
+      <c r="G68">
+        <v>148358</v>
+      </c>
+      <c r="H68">
+        <v>263044</v>
+      </c>
+      <c r="I68">
+        <v>4142</v>
+      </c>
+      <c r="J68">
+        <v>3956</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>39224</v>
+      </c>
+      <c r="O68">
+        <v>68075</v>
+      </c>
+      <c r="P68">
+        <v>14873</v>
+      </c>
+      <c r="Q68">
+        <v>-555</v>
+      </c>
+      <c r="R68">
+        <v>43738</v>
+      </c>
+      <c r="S68">
+        <v>114096</v>
+      </c>
+      <c r="T68">
+        <v>194969</v>
+      </c>
+      <c r="U68">
+        <v>16032</v>
+      </c>
+      <c r="V68">
+        <v>15466</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-6954</v>
+      </c>
+      <c r="Y68">
+        <v>9792</v>
+      </c>
+      <c r="Z68">
+        <v>-2466</v>
+      </c>
+      <c r="AA68">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>10671</v>
+      </c>
+      <c r="D69">
+        <v>46075</v>
+      </c>
+      <c r="E69">
+        <v>25326</v>
+      </c>
+      <c r="F69">
+        <v>25055</v>
+      </c>
+      <c r="G69">
+        <v>152578</v>
+      </c>
+      <c r="H69">
+        <v>275909</v>
+      </c>
+      <c r="I69">
+        <v>5561</v>
+      </c>
+      <c r="J69">
+        <v>3958</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>45221</v>
+      </c>
+      <c r="O69">
+        <v>74467</v>
+      </c>
+      <c r="P69">
+        <v>16082</v>
+      </c>
+      <c r="Q69">
+        <v>2466</v>
+      </c>
+      <c r="R69">
+        <v>43830</v>
+      </c>
+      <c r="S69">
+        <v>118899</v>
+      </c>
+      <c r="T69">
+        <v>201442</v>
+      </c>
+      <c r="U69">
+        <v>18498</v>
+      </c>
+      <c r="V69">
+        <v>14427</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-7326</v>
+      </c>
+      <c r="Y69">
+        <v>10810</v>
+      </c>
+      <c r="Z69">
+        <v>3370</v>
+      </c>
+      <c r="AA69">
+        <v>10671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>6836</v>
+      </c>
+      <c r="D70">
+        <v>41159</v>
+      </c>
+      <c r="E70">
+        <v>21825</v>
+      </c>
+      <c r="F70">
+        <v>22177</v>
+      </c>
+      <c r="G70">
+        <v>147018</v>
+      </c>
+      <c r="H70">
+        <v>273403</v>
+      </c>
+      <c r="I70">
+        <v>4099</v>
+      </c>
+      <c r="J70">
+        <v>3960</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-1947</v>
+      </c>
+      <c r="N70">
+        <v>40189</v>
+      </c>
+      <c r="O70">
+        <v>69744</v>
+      </c>
+      <c r="P70">
+        <v>16804</v>
+      </c>
+      <c r="Q70">
+        <v>1146</v>
+      </c>
+      <c r="R70">
+        <v>43921</v>
+      </c>
+      <c r="S70">
+        <v>123048</v>
+      </c>
+      <c r="T70">
+        <v>203659</v>
+      </c>
+      <c r="U70">
+        <v>19644</v>
+      </c>
+      <c r="V70">
+        <v>11451</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-8186</v>
+      </c>
+      <c r="Y70">
+        <v>11532</v>
+      </c>
+      <c r="Z70">
+        <v>3936</v>
+      </c>
+      <c r="AA70">
+        <v>6836</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>6959</v>
+      </c>
+      <c r="D71">
+        <v>38297</v>
+      </c>
+      <c r="E71">
+        <v>21201</v>
+      </c>
+      <c r="F71">
+        <v>19744</v>
+      </c>
+      <c r="G71">
+        <v>149069</v>
+      </c>
+      <c r="H71">
+        <v>278492</v>
+      </c>
+      <c r="I71">
+        <v>4064</v>
+      </c>
+      <c r="J71">
+        <v>2963</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>43658</v>
+      </c>
+      <c r="O71">
+        <v>71170</v>
+      </c>
+      <c r="P71">
+        <v>17279</v>
+      </c>
+      <c r="Q71">
+        <v>-1902</v>
+      </c>
+      <c r="R71">
+        <v>44012</v>
+      </c>
+      <c r="S71">
+        <v>127498</v>
+      </c>
+      <c r="T71">
+        <v>207322</v>
+      </c>
+      <c r="U71">
+        <v>17742</v>
+      </c>
+      <c r="V71">
+        <v>13993</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-7498</v>
+      </c>
+      <c r="Y71">
+        <v>11764</v>
+      </c>
+      <c r="Z71">
+        <v>-3011</v>
+      </c>
+      <c r="AA71">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>11247</v>
+      </c>
+      <c r="D72">
+        <v>46173</v>
+      </c>
+      <c r="E72">
+        <v>24925</v>
+      </c>
+      <c r="F72">
+        <v>25056</v>
+      </c>
+      <c r="G72">
+        <v>164369</v>
+      </c>
+      <c r="H72">
+        <v>299243</v>
+      </c>
+      <c r="I72">
+        <v>4391</v>
+      </c>
+      <c r="J72">
+        <v>12828</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>48200</v>
+      </c>
+      <c r="O72">
+        <v>86323</v>
+      </c>
+      <c r="P72">
+        <v>27542</v>
+      </c>
+      <c r="Q72">
+        <v>2387</v>
+      </c>
+      <c r="R72">
+        <v>44104</v>
+      </c>
+      <c r="S72">
+        <v>132121</v>
+      </c>
+      <c r="T72">
+        <v>212920</v>
+      </c>
+      <c r="U72">
+        <v>20129</v>
+      </c>
+      <c r="V72">
+        <v>17003</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>546</v>
+      </c>
+      <c r="Y72">
+        <v>12058</v>
+      </c>
+      <c r="Z72">
+        <v>-9372</v>
+      </c>
+      <c r="AA72">
+        <v>11247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
         <v>15227</v>
       </c>
-      <c r="D42">
+      <c r="D73">
         <v>56898</v>
       </c>
-      <c r="E42">
+      <c r="E73">
         <v>30930</v>
       </c>
-      <c r="F42">
+      <c r="F73">
         <v>30818</v>
       </c>
-      <c r="G42">
+      <c r="G73">
         <v>174296</v>
       </c>
-      <c r="H42">
+      <c r="H73">
         <v>319616</v>
       </c>
-      <c r="I42">
+      <c r="I73">
         <v>5589</v>
       </c>
-      <c r="J42">
+      <c r="J73">
         <v>12832</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
         <v>56834</v>
       </c>
-      <c r="O42">
+      <c r="O73">
         <v>97072</v>
       </c>
-      <c r="P42">
+      <c r="P73">
         <v>27872</v>
       </c>
-      <c r="Q42">
+      <c r="Q73">
         <v>6336</v>
       </c>
-      <c r="R42">
+      <c r="R73">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S73">
         <v>135301</v>
       </c>
-      <c r="T42">
+      <c r="T73">
         <v>222544</v>
       </c>
-      <c r="U42">
+      <c r="U73">
         <v>26465</v>
       </c>
-      <c r="V42">
+      <c r="V73">
         <v>22677</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
         <v>-9270</v>
       </c>
-      <c r="Y42">
+      <c r="Y73">
         <v>12246</v>
       </c>
-      <c r="Z42">
+      <c r="Z73">
         <v>-1375</v>
       </c>
-      <c r="AA42">
+      <c r="AA73">
         <v>15227</v>
       </c>
     </row>
